--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_326__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_326__Reeval_LHS_Modell_1.2.xlsx
@@ -5891,7 +5891,7 @@
                   <c:v>67.30384063720703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.73998260498047</c:v>
+                  <c:v>51.739990234375</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>56.82888412475586</c:v>
@@ -5912,16 +5912,16 @@
                   <c:v>56.97439575195312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.36910247802734</c:v>
+                  <c:v>43.36909866333008</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>55.34065246582031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.41208648681641</c:v>
+                  <c:v>47.41208267211914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.75745010375977</c:v>
+                  <c:v>45.7574462890625</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>56.70542144775391</c:v>
@@ -5930,7 +5930,7 @@
                   <c:v>58.83154678344727</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47.35222244262695</c:v>
+                  <c:v>47.35221862792969</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>48.33524703979492</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>51.4555549621582</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>46.89651489257812</c:v>
+                  <c:v>46.89651107788086</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>54.76758575439453</c:v>
@@ -6089,7 +6089,7 @@
                   <c:v>57.72804641723633</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53.3177604675293</c:v>
+                  <c:v>53.31775283813477</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>60.13157653808594</c:v>
@@ -6131,7 +6131,7 @@
                   <c:v>66.1278076171875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>64.43247222900391</c:v>
+                  <c:v>64.43246459960938</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45.90119171142578</c:v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>51.73998260498047</v>
+        <v>51.739990234375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>43.36910247802734</v>
+        <v>43.36909866333008</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>47.41208648681641</v>
+        <v>47.41208267211914</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>79.6208</v>
       </c>
       <c r="F18">
-        <v>45.75745010375977</v>
+        <v>45.7574462890625</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.35222244262695</v>
+        <v>47.35221862792969</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>46.89651489257812</v>
+        <v>46.89651107788086</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.41719999999999</v>
       </c>
       <c r="F74">
-        <v>53.3177604675293</v>
+        <v>53.31775283813477</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>64.43247222900391</v>
+        <v>64.43246459960938</v>
       </c>
     </row>
     <row r="89" spans="1:6">
